--- a/BExcel/src/main/java/com/xu/tt/util/1.xlsx
+++ b/BExcel/src/main/java/com/xu/tt/util/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -404,6 +408,14 @@
       </c>
       <c r="B3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
